--- a/config_dummy.xlsx
+++ b/config_dummy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28807A89-1AF7-4C14-8CE8-9D6989F8E117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1919713-F94E-4D52-A28C-C395005D5DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="appConfig" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
   <si>
     <t>con_string_mis_warehouse</t>
   </si>
@@ -389,13 +389,25 @@
   </si>
   <si>
     <t>WR_RE_COMB_PSP_Fetch_Sql</t>
+  </si>
+  <si>
+    <t>metricFetchSql</t>
+  </si>
+  <si>
+    <t>metricName</t>
+  </si>
+  <si>
+    <t>maxReasonabilityLimit</t>
+  </si>
+  <si>
+    <t>metricScadaId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +446,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -459,7 +479,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -470,6 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1021,241 +1042,253 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>90</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1267,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,267 +1312,279 @@
     <col min="2" max="2" width="164.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="2"/>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>